--- a/Bills/Adish_Talim_Jobuss.xlsx
+++ b/Bills/Adish_Talim_Jobuss.xlsx
@@ -1552,7 +1552,7 @@
       </c>
       <c r="G12" s="37" t="inlineStr">
         <is>
-          <t>27-02-2026</t>
+          <t>28-02-2026</t>
         </is>
       </c>
       <c r="H12" s="38" t="n"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="G13" s="64" t="inlineStr">
         <is>
-          <t>02-03-2026</t>
+          <t>03-03-2026</t>
         </is>
       </c>
       <c r="H13" s="65" t="n"/>

--- a/Bills/Adish_Talim_Jobuss.xlsx
+++ b/Bills/Adish_Talim_Jobuss.xlsx
@@ -2007,7 +2007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2039,7 +2039,6 @@
     <col width="18" customWidth="1" min="22" max="22"/>
     <col width="18" customWidth="1" min="23" max="23"/>
     <col width="18" customWidth="1" min="24" max="24"/>
-    <col width="18" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -2050,122 +2049,117 @@
       </c>
       <c r="B1" s="124" t="inlineStr">
         <is>
-          <t>Working At</t>
+          <t>Employee Code</t>
         </is>
       </c>
       <c r="C1" s="124" t="inlineStr">
         <is>
-          <t>Employee Code</t>
+          <t>Employee Name</t>
         </is>
       </c>
       <c r="D1" s="124" t="inlineStr">
         <is>
-          <t>Employee Name</t>
+          <t>Billing</t>
         </is>
       </c>
       <c r="E1" s="124" t="inlineStr">
         <is>
-          <t>Billing</t>
+          <t>No of days</t>
         </is>
       </c>
       <c r="F1" s="124" t="inlineStr">
         <is>
-          <t>No of days</t>
+          <t>Eligible Days</t>
         </is>
       </c>
       <c r="G1" s="124" t="inlineStr">
         <is>
-          <t>Eligible Days</t>
+          <t>No of Saturdays</t>
         </is>
       </c>
       <c r="H1" s="124" t="inlineStr">
         <is>
-          <t>No of Saturdays</t>
+          <t>No of Sundays</t>
         </is>
       </c>
       <c r="I1" s="124" t="inlineStr">
         <is>
-          <t>No of Sundays</t>
+          <t>No of Holidays</t>
         </is>
       </c>
       <c r="J1" s="124" t="inlineStr">
         <is>
-          <t>No of Holidays</t>
+          <t>Total Present</t>
         </is>
       </c>
       <c r="K1" s="124" t="inlineStr">
         <is>
-          <t>Total Present</t>
+          <t>Total Working Days</t>
         </is>
       </c>
       <c r="L1" s="124" t="inlineStr">
         <is>
-          <t>Total Working Days</t>
+          <t>Absents this Month</t>
         </is>
       </c>
       <c r="M1" s="124" t="inlineStr">
         <is>
-          <t>Absents this Month</t>
+          <t>Adjustment of Days</t>
         </is>
       </c>
       <c r="N1" s="124" t="inlineStr">
         <is>
-          <t>Adjustment of Days</t>
+          <t>Total Payable Days</t>
         </is>
       </c>
       <c r="O1" s="124" t="inlineStr">
         <is>
-          <t>Total Payable Days</t>
+          <t>Total Payable Billing</t>
         </is>
       </c>
       <c r="P1" s="124" t="inlineStr">
         <is>
-          <t>Total Payable Billing</t>
+          <t>Charges</t>
         </is>
       </c>
       <c r="Q1" s="124" t="inlineStr">
         <is>
-          <t>Charges</t>
+          <t>Out of Pocket Exp</t>
         </is>
       </c>
       <c r="R1" s="124" t="inlineStr">
         <is>
-          <t>Out of Pocket Exp</t>
+          <t>Arrears</t>
         </is>
       </c>
       <c r="S1" s="124" t="inlineStr">
         <is>
-          <t>Arrears</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="T1" s="124" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Grand Total</t>
         </is>
       </c>
       <c r="U1" s="124" t="inlineStr">
         <is>
+          <t>Remark</t>
+        </is>
+      </c>
+      <c r="V1" s="124" t="inlineStr">
+        <is>
           <t>CGST @9%</t>
         </is>
       </c>
-      <c r="V1" s="124" t="inlineStr">
+      <c r="W1" s="124" t="inlineStr">
         <is>
           <t>SGST @9%</t>
         </is>
       </c>
-      <c r="W1" s="124" t="inlineStr">
+      <c r="X1" s="124" t="inlineStr">
         <is>
           <t>IGST @18%</t>
-        </is>
-      </c>
-      <c r="X1" s="124" t="inlineStr">
-        <is>
-          <t>Grand Total</t>
-        </is>
-      </c>
-      <c r="Y1" s="124" t="inlineStr">
-        <is>
-          <t>Remark</t>
         </is>
       </c>
     </row>
@@ -2177,80 +2171,75 @@
       </c>
       <c r="B2" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10143</t>
         </is>
       </c>
       <c r="C2" s="125" t="inlineStr">
         <is>
-          <t>JB-10143</t>
-        </is>
-      </c>
-      <c r="D2" s="125" t="inlineStr">
-        <is>
           <t>AADITYA VIJAY GOPALANI</t>
         </is>
       </c>
+      <c r="D2" s="125" t="n">
+        <v>40800</v>
+      </c>
       <c r="E2" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G2" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K2" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L2" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O2" s="125" t="n">
         <v>40800</v>
       </c>
-      <c r="F2" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G2" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H2" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J2" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L2" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M2" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P2" s="125" t="n">
-        <v>40800</v>
+        <v>750</v>
       </c>
       <c r="Q2" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R2" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="125" t="n">
-        <v>0</v>
+        <v>41550</v>
       </c>
       <c r="T2" s="125" t="n">
-        <v>41550</v>
+        <v>49029</v>
       </c>
       <c r="U2" s="125" t="n">
-        <v>3739.5</v>
+        <v/>
       </c>
       <c r="V2" s="125" t="n">
         <v>3739.5</v>
       </c>
       <c r="W2" s="125" t="n">
-        <v>0</v>
+        <v>3739.5</v>
       </c>
       <c r="X2" s="125" t="n">
-        <v>49029</v>
-      </c>
-      <c r="Y2" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -2262,80 +2251,75 @@
       </c>
       <c r="B3" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10014</t>
         </is>
       </c>
       <c r="C3" s="125" t="inlineStr">
         <is>
-          <t>JB-10014</t>
-        </is>
-      </c>
-      <c r="D3" s="125" t="inlineStr">
-        <is>
           <t>ABHISHEK GUPTA</t>
         </is>
       </c>
+      <c r="D3" s="125" t="n">
+        <v>43870</v>
+      </c>
       <c r="E3" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F3" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G3" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K3" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L3" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O3" s="125" t="n">
         <v>43870</v>
       </c>
-      <c r="F3" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G3" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H3" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L3" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M3" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P3" s="125" t="n">
-        <v>43870</v>
+        <v>750</v>
       </c>
       <c r="Q3" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R3" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S3" s="125" t="n">
-        <v>0</v>
+        <v>44620</v>
       </c>
       <c r="T3" s="125" t="n">
-        <v>44620</v>
+        <v>52651.6</v>
       </c>
       <c r="U3" s="125" t="n">
-        <v>4015.8</v>
+        <v/>
       </c>
       <c r="V3" s="125" t="n">
         <v>4015.8</v>
       </c>
       <c r="W3" s="125" t="n">
-        <v>0</v>
+        <v>4015.8</v>
       </c>
       <c r="X3" s="125" t="n">
-        <v>52651.6</v>
-      </c>
-      <c r="Y3" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -2347,80 +2331,75 @@
       </c>
       <c r="B4" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10011</t>
         </is>
       </c>
       <c r="C4" s="125" t="inlineStr">
         <is>
-          <t>JB-10011</t>
-        </is>
-      </c>
-      <c r="D4" s="125" t="inlineStr">
-        <is>
           <t>ARUMUGAM PERIASWAMY DEVENDRAN</t>
         </is>
       </c>
+      <c r="D4" s="125" t="n">
+        <v>45150</v>
+      </c>
       <c r="E4" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F4" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G4" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K4" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L4" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O4" s="125" t="n">
         <v>45150</v>
       </c>
-      <c r="F4" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G4" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H4" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L4" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M4" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P4" s="125" t="n">
-        <v>45150</v>
+        <v>750</v>
       </c>
       <c r="Q4" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R4" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="125" t="n">
-        <v>0</v>
+        <v>45900</v>
       </c>
       <c r="T4" s="125" t="n">
-        <v>45900</v>
+        <v>54162</v>
       </c>
       <c r="U4" s="125" t="n">
-        <v>4131</v>
+        <v/>
       </c>
       <c r="V4" s="125" t="n">
         <v>4131</v>
       </c>
       <c r="W4" s="125" t="n">
-        <v>0</v>
+        <v>4131</v>
       </c>
       <c r="X4" s="125" t="n">
-        <v>54162</v>
-      </c>
-      <c r="Y4" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -2432,80 +2411,75 @@
       </c>
       <c r="B5" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10089</t>
         </is>
       </c>
       <c r="C5" s="125" t="inlineStr">
         <is>
-          <t>JB-10089</t>
-        </is>
-      </c>
-      <c r="D5" s="125" t="inlineStr">
-        <is>
           <t>ASHUTOSH ANILKUMAR PATIL</t>
         </is>
       </c>
+      <c r="D5" s="125" t="n">
+        <v>42848</v>
+      </c>
       <c r="E5" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F5" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G5" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K5" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L5" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O5" s="125" t="n">
         <v>42848</v>
       </c>
-      <c r="F5" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G5" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H5" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L5" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M5" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P5" s="125" t="n">
-        <v>42848</v>
+        <v>750</v>
       </c>
       <c r="Q5" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R5" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S5" s="125" t="n">
-        <v>0</v>
+        <v>43598</v>
       </c>
       <c r="T5" s="125" t="n">
-        <v>43598</v>
+        <v>51445.64</v>
       </c>
       <c r="U5" s="125" t="n">
-        <v>3923.82</v>
+        <v/>
       </c>
       <c r="V5" s="125" t="n">
         <v>3923.82</v>
       </c>
       <c r="W5" s="125" t="n">
-        <v>0</v>
+        <v>3923.82</v>
       </c>
       <c r="X5" s="125" t="n">
-        <v>51445.64</v>
-      </c>
-      <c r="Y5" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -2517,80 +2491,75 @@
       </c>
       <c r="B6" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10178</t>
         </is>
       </c>
       <c r="C6" s="125" t="inlineStr">
         <is>
-          <t>JB-10178</t>
-        </is>
-      </c>
-      <c r="D6" s="125" t="inlineStr">
-        <is>
           <t>DEEPAK KUMAR SRIVASTAVA</t>
         </is>
       </c>
+      <c r="D6" s="125" t="n">
+        <v>39000</v>
+      </c>
       <c r="E6" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F6" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G6" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K6" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L6" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O6" s="125" t="n">
         <v>39000</v>
       </c>
-      <c r="F6" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G6" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H6" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L6" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M6" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P6" s="125" t="n">
-        <v>39000</v>
+        <v>750</v>
       </c>
       <c r="Q6" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R6" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="125" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="T6" s="125" t="n">
-        <v>39750</v>
+        <v>46905</v>
       </c>
       <c r="U6" s="125" t="n">
-        <v>3577.5</v>
+        <v/>
       </c>
       <c r="V6" s="125" t="n">
         <v>3577.5</v>
       </c>
       <c r="W6" s="125" t="n">
-        <v>0</v>
+        <v>3577.5</v>
       </c>
       <c r="X6" s="125" t="n">
-        <v>46905</v>
-      </c>
-      <c r="Y6" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -2602,80 +2571,75 @@
       </c>
       <c r="B7" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10009</t>
         </is>
       </c>
       <c r="C7" s="125" t="inlineStr">
         <is>
-          <t>JB-10009</t>
-        </is>
-      </c>
-      <c r="D7" s="125" t="inlineStr">
-        <is>
           <t>GANESH BHAGWAN KHADKE</t>
         </is>
       </c>
+      <c r="D7" s="125" t="n">
+        <v>40660</v>
+      </c>
       <c r="E7" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F7" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G7" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K7" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L7" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O7" s="125" t="n">
         <v>40660</v>
       </c>
-      <c r="F7" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G7" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H7" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L7" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M7" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P7" s="125" t="n">
-        <v>40660</v>
+        <v>750</v>
       </c>
       <c r="Q7" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R7" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S7" s="125" t="n">
-        <v>0</v>
+        <v>41410</v>
       </c>
       <c r="T7" s="125" t="n">
-        <v>41410</v>
+        <v>48863.8</v>
       </c>
       <c r="U7" s="125" t="n">
-        <v>3726.9</v>
+        <v/>
       </c>
       <c r="V7" s="125" t="n">
         <v>3726.9</v>
       </c>
       <c r="W7" s="125" t="n">
-        <v>0</v>
+        <v>3726.9</v>
       </c>
       <c r="X7" s="125" t="n">
-        <v>48863.8</v>
-      </c>
-      <c r="Y7" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -2687,80 +2651,75 @@
       </c>
       <c r="B8" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10015</t>
         </is>
       </c>
       <c r="C8" s="125" t="inlineStr">
         <is>
-          <t>JB-10015</t>
-        </is>
-      </c>
-      <c r="D8" s="125" t="inlineStr">
-        <is>
           <t>HARSHALI RAMESH KOLI</t>
         </is>
       </c>
+      <c r="D8" s="125" t="n">
+        <v>35700</v>
+      </c>
       <c r="E8" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F8" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G8" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K8" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L8" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O8" s="125" t="n">
         <v>35700</v>
       </c>
-      <c r="F8" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G8" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H8" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I8" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L8" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M8" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P8" s="125" t="n">
-        <v>35700</v>
+        <v>750</v>
       </c>
       <c r="Q8" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R8" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S8" s="125" t="n">
-        <v>0</v>
+        <v>36450</v>
       </c>
       <c r="T8" s="125" t="n">
-        <v>36450</v>
+        <v>43011</v>
       </c>
       <c r="U8" s="125" t="n">
-        <v>3280.5</v>
+        <v/>
       </c>
       <c r="V8" s="125" t="n">
         <v>3280.5</v>
       </c>
       <c r="W8" s="125" t="n">
-        <v>0</v>
+        <v>3280.5</v>
       </c>
       <c r="X8" s="125" t="n">
-        <v>43011</v>
-      </c>
-      <c r="Y8" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -2772,80 +2731,75 @@
       </c>
       <c r="B9" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10085</t>
         </is>
       </c>
       <c r="C9" s="125" t="inlineStr">
         <is>
-          <t>JB-10085</t>
-        </is>
-      </c>
-      <c r="D9" s="125" t="inlineStr">
-        <is>
           <t>JAI KUNAL</t>
         </is>
       </c>
+      <c r="D9" s="125" t="n">
+        <v>41798</v>
+      </c>
       <c r="E9" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F9" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G9" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K9" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L9" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O9" s="125" t="n">
         <v>41798</v>
       </c>
-      <c r="F9" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G9" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H9" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L9" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M9" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P9" s="125" t="n">
-        <v>41798</v>
+        <v>750</v>
       </c>
       <c r="Q9" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R9" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S9" s="125" t="n">
-        <v>0</v>
+        <v>42548</v>
       </c>
       <c r="T9" s="125" t="n">
-        <v>42548</v>
+        <v>50206.64</v>
       </c>
       <c r="U9" s="125" t="n">
-        <v>3829.32</v>
+        <v/>
       </c>
       <c r="V9" s="125" t="n">
         <v>3829.32</v>
       </c>
       <c r="W9" s="125" t="n">
-        <v>0</v>
+        <v>3829.32</v>
       </c>
       <c r="X9" s="125" t="n">
-        <v>50206.64</v>
-      </c>
-      <c r="Y9" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -2857,80 +2811,75 @@
       </c>
       <c r="B10" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10167</t>
         </is>
       </c>
       <c r="C10" s="125" t="inlineStr">
         <is>
-          <t>JB-10167</t>
-        </is>
-      </c>
-      <c r="D10" s="125" t="inlineStr">
-        <is>
           <t>KARAN JOGEANDER SINGH</t>
         </is>
       </c>
+      <c r="D10" s="125" t="n">
+        <v>36800</v>
+      </c>
       <c r="E10" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F10" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G10" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K10" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L10" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O10" s="125" t="n">
         <v>36800</v>
       </c>
-      <c r="F10" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G10" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H10" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L10" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M10" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P10" s="125" t="n">
-        <v>36800</v>
+        <v>750</v>
       </c>
       <c r="Q10" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R10" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S10" s="125" t="n">
-        <v>0</v>
+        <v>37550</v>
       </c>
       <c r="T10" s="125" t="n">
-        <v>37550</v>
+        <v>44309</v>
       </c>
       <c r="U10" s="125" t="n">
-        <v>3379.5</v>
+        <v/>
       </c>
       <c r="V10" s="125" t="n">
         <v>3379.5</v>
       </c>
       <c r="W10" s="125" t="n">
-        <v>0</v>
+        <v>3379.5</v>
       </c>
       <c r="X10" s="125" t="n">
-        <v>44309</v>
-      </c>
-      <c r="Y10" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -2942,80 +2891,75 @@
       </c>
       <c r="B11" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10260</t>
         </is>
       </c>
       <c r="C11" s="125" t="inlineStr">
         <is>
-          <t>JB-10260</t>
-        </is>
-      </c>
-      <c r="D11" s="125" t="inlineStr">
-        <is>
           <t>KIRTI SALASKAR</t>
         </is>
       </c>
+      <c r="D11" s="125" t="n">
+        <v>30000</v>
+      </c>
       <c r="E11" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F11" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G11" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K11" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L11" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O11" s="125" t="n">
         <v>30000</v>
       </c>
-      <c r="F11" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G11" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H11" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I11" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J11" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L11" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M11" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P11" s="125" t="n">
-        <v>30000</v>
+        <v>750</v>
       </c>
       <c r="Q11" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R11" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S11" s="125" t="n">
-        <v>0</v>
+        <v>30750</v>
       </c>
       <c r="T11" s="125" t="n">
-        <v>30750</v>
+        <v>36285</v>
       </c>
       <c r="U11" s="125" t="n">
-        <v>2767.5</v>
+        <v/>
       </c>
       <c r="V11" s="125" t="n">
         <v>2767.5</v>
       </c>
       <c r="W11" s="125" t="n">
-        <v>0</v>
+        <v>2767.5</v>
       </c>
       <c r="X11" s="125" t="n">
-        <v>36285</v>
-      </c>
-      <c r="Y11" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -3027,80 +2971,75 @@
       </c>
       <c r="B12" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10169</t>
         </is>
       </c>
       <c r="C12" s="125" t="inlineStr">
         <is>
-          <t>JB-10169</t>
-        </is>
-      </c>
-      <c r="D12" s="125" t="inlineStr">
-        <is>
           <t>MANASA CHANDRABABU NAIDU RAVILLA</t>
         </is>
       </c>
+      <c r="D12" s="125" t="n">
+        <v>49522</v>
+      </c>
       <c r="E12" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F12" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G12" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K12" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L12" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O12" s="125" t="n">
         <v>49522</v>
       </c>
-      <c r="F12" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G12" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H12" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I12" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L12" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M12" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P12" s="125" t="n">
-        <v>49522</v>
+        <v>750</v>
       </c>
       <c r="Q12" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R12" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S12" s="125" t="n">
-        <v>0</v>
+        <v>50272</v>
       </c>
       <c r="T12" s="125" t="n">
-        <v>50272</v>
+        <v>59320.96</v>
       </c>
       <c r="U12" s="125" t="n">
-        <v>4524.48</v>
+        <v/>
       </c>
       <c r="V12" s="125" t="n">
         <v>4524.48</v>
       </c>
       <c r="W12" s="125" t="n">
-        <v>0</v>
+        <v>4524.48</v>
       </c>
       <c r="X12" s="125" t="n">
-        <v>59320.96</v>
-      </c>
-      <c r="Y12" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -3112,80 +3051,75 @@
       </c>
       <c r="B13" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10025</t>
         </is>
       </c>
       <c r="C13" s="125" t="inlineStr">
         <is>
-          <t>JB-10025</t>
-        </is>
-      </c>
-      <c r="D13" s="125" t="inlineStr">
-        <is>
           <t>MANSI GOEL</t>
         </is>
       </c>
+      <c r="D13" s="125" t="n">
+        <v>37985</v>
+      </c>
       <c r="E13" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F13" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G13" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K13" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L13" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O13" s="125" t="n">
         <v>37985</v>
       </c>
-      <c r="F13" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G13" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H13" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I13" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L13" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M13" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P13" s="125" t="n">
-        <v>37985</v>
+        <v>750</v>
       </c>
       <c r="Q13" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R13" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S13" s="125" t="n">
-        <v>0</v>
+        <v>38735</v>
       </c>
       <c r="T13" s="125" t="n">
-        <v>38735</v>
+        <v>45707.3</v>
       </c>
       <c r="U13" s="125" t="n">
-        <v>3486.15</v>
+        <v/>
       </c>
       <c r="V13" s="125" t="n">
         <v>3486.15</v>
       </c>
       <c r="W13" s="125" t="n">
-        <v>0</v>
+        <v>3486.15</v>
       </c>
       <c r="X13" s="125" t="n">
-        <v>45707.3</v>
-      </c>
-      <c r="Y13" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -3197,80 +3131,75 @@
       </c>
       <c r="B14" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10197</t>
         </is>
       </c>
       <c r="C14" s="125" t="inlineStr">
         <is>
-          <t>JB-10197</t>
-        </is>
-      </c>
-      <c r="D14" s="125" t="inlineStr">
-        <is>
           <t>NIKHILESH RAMSAHAI VISHWAKARMA</t>
         </is>
       </c>
+      <c r="D14" s="125" t="n">
+        <v>33800</v>
+      </c>
       <c r="E14" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F14" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G14" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K14" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L14" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O14" s="125" t="n">
         <v>33800</v>
       </c>
-      <c r="F14" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G14" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H14" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I14" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J14" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L14" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M14" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P14" s="125" t="n">
-        <v>33800</v>
+        <v>750</v>
       </c>
       <c r="Q14" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R14" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S14" s="125" t="n">
-        <v>0</v>
+        <v>34550</v>
       </c>
       <c r="T14" s="125" t="n">
-        <v>34550</v>
+        <v>40769</v>
       </c>
       <c r="U14" s="125" t="n">
-        <v>3109.5</v>
+        <v/>
       </c>
       <c r="V14" s="125" t="n">
         <v>3109.5</v>
       </c>
       <c r="W14" s="125" t="n">
-        <v>0</v>
+        <v>3109.5</v>
       </c>
       <c r="X14" s="125" t="n">
-        <v>40769</v>
-      </c>
-      <c r="Y14" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -3282,83 +3211,78 @@
       </c>
       <c r="B15" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10016</t>
         </is>
       </c>
       <c r="C15" s="125" t="inlineStr">
         <is>
-          <t>JB-10016</t>
-        </is>
-      </c>
-      <c r="D15" s="125" t="inlineStr">
-        <is>
           <t>PANKAJ GUSAIN</t>
         </is>
       </c>
+      <c r="D15" s="125" t="n">
+        <v>36400</v>
+      </c>
       <c r="E15" s="125" t="n">
-        <v>36400</v>
+        <v>31</v>
       </c>
       <c r="F15" s="125" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G15" s="125" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="H15" s="125" t="n">
         <v>3</v>
       </c>
       <c r="I15" s="125" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" s="125" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K15" s="125" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L15" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="125" t="n">
         <v>24</v>
       </c>
-      <c r="M15" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="125" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" s="125" t="n">
-        <v>24</v>
+        <v>28180.65</v>
       </c>
       <c r="P15" s="125" t="n">
-        <v>28180.65</v>
+        <v>750</v>
       </c>
       <c r="Q15" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R15" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S15" s="125" t="n">
-        <v>0</v>
+        <v>28930.65</v>
       </c>
       <c r="T15" s="125" t="n">
-        <v>28930.65</v>
-      </c>
-      <c r="U15" s="125" t="n">
-        <v>2603.76</v>
+        <v>34138.16</v>
+      </c>
+      <c r="U15" s="125" t="inlineStr">
+        <is>
+          <t>LDW 13-02-2026</t>
+        </is>
       </c>
       <c r="V15" s="125" t="n">
         <v>2603.76</v>
       </c>
       <c r="W15" s="125" t="n">
-        <v>0</v>
+        <v>2603.76</v>
       </c>
       <c r="X15" s="125" t="n">
-        <v>34138.16</v>
-      </c>
-      <c r="Y15" s="125" t="inlineStr">
-        <is>
-          <t>LDW 13-02-2026</t>
-        </is>
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -3369,80 +3293,75 @@
       </c>
       <c r="B16" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10080</t>
         </is>
       </c>
       <c r="C16" s="125" t="inlineStr">
         <is>
-          <t>JB-10080</t>
-        </is>
-      </c>
-      <c r="D16" s="125" t="inlineStr">
-        <is>
           <t>RAGHAV MANGLIK</t>
         </is>
       </c>
+      <c r="D16" s="125" t="n">
+        <v>39698</v>
+      </c>
       <c r="E16" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F16" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G16" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K16" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L16" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O16" s="125" t="n">
         <v>39698</v>
       </c>
-      <c r="F16" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G16" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H16" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I16" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L16" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M16" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P16" s="125" t="n">
-        <v>39698</v>
+        <v>750</v>
       </c>
       <c r="Q16" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R16" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S16" s="125" t="n">
-        <v>0</v>
+        <v>40448</v>
       </c>
       <c r="T16" s="125" t="n">
-        <v>40448</v>
+        <v>47728.64</v>
       </c>
       <c r="U16" s="125" t="n">
-        <v>3640.32</v>
+        <v/>
       </c>
       <c r="V16" s="125" t="n">
         <v>3640.32</v>
       </c>
       <c r="W16" s="125" t="n">
-        <v>0</v>
+        <v>3640.32</v>
       </c>
       <c r="X16" s="125" t="n">
-        <v>47728.64</v>
-      </c>
-      <c r="Y16" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -3454,80 +3373,75 @@
       </c>
       <c r="B17" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10026</t>
         </is>
       </c>
       <c r="C17" s="125" t="inlineStr">
         <is>
-          <t>JB-10026</t>
-        </is>
-      </c>
-      <c r="D17" s="125" t="inlineStr">
-        <is>
           <t>RAJKUMAR SIDRAM GAIKWAD</t>
         </is>
       </c>
+      <c r="D17" s="125" t="n">
+        <v>37985</v>
+      </c>
       <c r="E17" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F17" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G17" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K17" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L17" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O17" s="125" t="n">
         <v>37985</v>
       </c>
-      <c r="F17" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G17" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H17" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I17" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J17" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L17" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M17" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P17" s="125" t="n">
-        <v>37985</v>
+        <v>750</v>
       </c>
       <c r="Q17" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R17" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S17" s="125" t="n">
-        <v>0</v>
+        <v>38735</v>
       </c>
       <c r="T17" s="125" t="n">
-        <v>38735</v>
+        <v>45707.3</v>
       </c>
       <c r="U17" s="125" t="n">
-        <v>3486.15</v>
+        <v/>
       </c>
       <c r="V17" s="125" t="n">
         <v>3486.15</v>
       </c>
       <c r="W17" s="125" t="n">
-        <v>0</v>
+        <v>3486.15</v>
       </c>
       <c r="X17" s="125" t="n">
-        <v>45707.3</v>
-      </c>
-      <c r="Y17" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -3539,80 +3453,75 @@
       </c>
       <c r="B18" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10084</t>
         </is>
       </c>
       <c r="C18" s="125" t="inlineStr">
         <is>
-          <t>JB-10084</t>
-        </is>
-      </c>
-      <c r="D18" s="125" t="inlineStr">
-        <is>
           <t>RAM PRAKASH PATIL</t>
         </is>
       </c>
+      <c r="D18" s="125" t="n">
+        <v>40748</v>
+      </c>
       <c r="E18" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F18" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G18" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K18" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L18" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O18" s="125" t="n">
         <v>40748</v>
       </c>
-      <c r="F18" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G18" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H18" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I18" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J18" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L18" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M18" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P18" s="125" t="n">
-        <v>40748</v>
+        <v>750</v>
       </c>
       <c r="Q18" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R18" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S18" s="125" t="n">
-        <v>0</v>
+        <v>41498</v>
       </c>
       <c r="T18" s="125" t="n">
-        <v>41498</v>
+        <v>48967.64</v>
       </c>
       <c r="U18" s="125" t="n">
-        <v>3734.82</v>
+        <v/>
       </c>
       <c r="V18" s="125" t="n">
         <v>3734.82</v>
       </c>
       <c r="W18" s="125" t="n">
-        <v>0</v>
+        <v>3734.82</v>
       </c>
       <c r="X18" s="125" t="n">
-        <v>48967.64</v>
-      </c>
-      <c r="Y18" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -3624,80 +3533,75 @@
       </c>
       <c r="B19" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10133</t>
         </is>
       </c>
       <c r="C19" s="125" t="inlineStr">
         <is>
-          <t>JB-10133</t>
-        </is>
-      </c>
-      <c r="D19" s="125" t="inlineStr">
-        <is>
           <t>SANCHIT KACHALE</t>
         </is>
       </c>
+      <c r="D19" s="125" t="n">
+        <v>34570</v>
+      </c>
       <c r="E19" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F19" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G19" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H19" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K19" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L19" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O19" s="125" t="n">
         <v>34570</v>
       </c>
-      <c r="F19" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G19" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H19" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I19" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J19" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L19" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M19" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P19" s="125" t="n">
-        <v>34570</v>
+        <v>750</v>
       </c>
       <c r="Q19" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R19" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S19" s="125" t="n">
-        <v>0</v>
+        <v>35320</v>
       </c>
       <c r="T19" s="125" t="n">
-        <v>35320</v>
+        <v>41677.6</v>
       </c>
       <c r="U19" s="125" t="n">
-        <v>3178.8</v>
+        <v/>
       </c>
       <c r="V19" s="125" t="n">
         <v>3178.8</v>
       </c>
       <c r="W19" s="125" t="n">
-        <v>0</v>
+        <v>3178.8</v>
       </c>
       <c r="X19" s="125" t="n">
-        <v>41677.6</v>
-      </c>
-      <c r="Y19" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -3709,80 +3613,75 @@
       </c>
       <c r="B20" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10170</t>
         </is>
       </c>
       <c r="C20" s="125" t="inlineStr">
         <is>
-          <t>JB-10170</t>
-        </is>
-      </c>
-      <c r="D20" s="125" t="inlineStr">
-        <is>
           <t>SANTOSH NAMDEV WAGHMARE</t>
         </is>
       </c>
+      <c r="D20" s="125" t="n">
+        <v>41800</v>
+      </c>
       <c r="E20" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F20" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G20" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K20" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L20" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O20" s="125" t="n">
         <v>41800</v>
       </c>
-      <c r="F20" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G20" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H20" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I20" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L20" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M20" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P20" s="125" t="n">
-        <v>41800</v>
+        <v>750</v>
       </c>
       <c r="Q20" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R20" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S20" s="125" t="n">
-        <v>0</v>
+        <v>42550</v>
       </c>
       <c r="T20" s="125" t="n">
-        <v>42550</v>
+        <v>50209</v>
       </c>
       <c r="U20" s="125" t="n">
-        <v>3829.5</v>
+        <v/>
       </c>
       <c r="V20" s="125" t="n">
         <v>3829.5</v>
       </c>
       <c r="W20" s="125" t="n">
-        <v>0</v>
+        <v>3829.5</v>
       </c>
       <c r="X20" s="125" t="n">
-        <v>50209</v>
-      </c>
-      <c r="Y20" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -3794,80 +3693,75 @@
       </c>
       <c r="B21" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10176</t>
         </is>
       </c>
       <c r="C21" s="125" t="inlineStr">
         <is>
-          <t>JB-10176</t>
-        </is>
-      </c>
-      <c r="D21" s="125" t="inlineStr">
-        <is>
           <t>SHIVANI SURESH SHARMA</t>
         </is>
       </c>
+      <c r="D21" s="125" t="n">
+        <v>38762</v>
+      </c>
       <c r="E21" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F21" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G21" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K21" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L21" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O21" s="125" t="n">
         <v>38762</v>
       </c>
-      <c r="F21" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G21" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H21" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I21" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J21" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L21" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M21" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P21" s="125" t="n">
-        <v>38762</v>
+        <v>750</v>
       </c>
       <c r="Q21" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R21" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S21" s="125" t="n">
-        <v>0</v>
+        <v>39512</v>
       </c>
       <c r="T21" s="125" t="n">
-        <v>39512</v>
+        <v>46624.16</v>
       </c>
       <c r="U21" s="125" t="n">
-        <v>3556.08</v>
+        <v/>
       </c>
       <c r="V21" s="125" t="n">
         <v>3556.08</v>
       </c>
       <c r="W21" s="125" t="n">
-        <v>0</v>
+        <v>3556.08</v>
       </c>
       <c r="X21" s="125" t="n">
-        <v>46624.16</v>
-      </c>
-      <c r="Y21" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -3879,80 +3773,75 @@
       </c>
       <c r="B22" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10230</t>
         </is>
       </c>
       <c r="C22" s="125" t="inlineStr">
         <is>
-          <t>JB-10230</t>
-        </is>
-      </c>
-      <c r="D22" s="125" t="inlineStr">
-        <is>
           <t>SHUBHAM SANJAY KUWALEKAR</t>
         </is>
       </c>
+      <c r="D22" s="125" t="n">
+        <v>32570</v>
+      </c>
       <c r="E22" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F22" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G22" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H22" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K22" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L22" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O22" s="125" t="n">
         <v>32570</v>
       </c>
-      <c r="F22" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G22" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H22" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I22" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J22" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L22" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M22" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P22" s="125" t="n">
-        <v>32570</v>
+        <v>750</v>
       </c>
       <c r="Q22" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R22" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S22" s="125" t="n">
-        <v>0</v>
+        <v>33320</v>
       </c>
       <c r="T22" s="125" t="n">
-        <v>33320</v>
+        <v>39317.6</v>
       </c>
       <c r="U22" s="125" t="n">
-        <v>2998.8</v>
+        <v/>
       </c>
       <c r="V22" s="125" t="n">
         <v>2998.8</v>
       </c>
       <c r="W22" s="125" t="n">
-        <v>0</v>
+        <v>2998.8</v>
       </c>
       <c r="X22" s="125" t="n">
-        <v>39317.6</v>
-      </c>
-      <c r="Y22" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -3964,80 +3853,75 @@
       </c>
       <c r="B23" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10119</t>
         </is>
       </c>
       <c r="C23" s="125" t="inlineStr">
         <is>
-          <t>JB-10119</t>
-        </is>
-      </c>
-      <c r="D23" s="125" t="inlineStr">
-        <is>
           <t>SHWETA GAJANAN GOSAVI</t>
         </is>
       </c>
+      <c r="D23" s="125" t="n">
+        <v>41667</v>
+      </c>
       <c r="E23" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F23" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G23" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K23" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L23" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O23" s="125" t="n">
         <v>41667</v>
       </c>
-      <c r="F23" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G23" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H23" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I23" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J23" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L23" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M23" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P23" s="125" t="n">
-        <v>41667</v>
+        <v>750</v>
       </c>
       <c r="Q23" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R23" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S23" s="125" t="n">
-        <v>0</v>
+        <v>42417</v>
       </c>
       <c r="T23" s="125" t="n">
-        <v>42417</v>
+        <v>50052.06</v>
       </c>
       <c r="U23" s="125" t="n">
-        <v>3817.53</v>
+        <v/>
       </c>
       <c r="V23" s="125" t="n">
         <v>3817.53</v>
       </c>
       <c r="W23" s="125" t="n">
-        <v>0</v>
+        <v>3817.53</v>
       </c>
       <c r="X23" s="125" t="n">
-        <v>50052.06</v>
-      </c>
-      <c r="Y23" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -4049,80 +3933,75 @@
       </c>
       <c r="B24" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10019</t>
         </is>
       </c>
       <c r="C24" s="125" t="inlineStr">
         <is>
-          <t>JB-10019</t>
-        </is>
-      </c>
-      <c r="D24" s="125" t="inlineStr">
-        <is>
           <t>SNEHA PRAVIN SHINDE</t>
         </is>
       </c>
+      <c r="D24" s="125" t="n">
+        <v>31447</v>
+      </c>
       <c r="E24" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F24" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G24" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H24" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K24" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L24" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O24" s="125" t="n">
         <v>31447</v>
       </c>
-      <c r="F24" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G24" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H24" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I24" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J24" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L24" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M24" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P24" s="125" t="n">
-        <v>31447</v>
+        <v>750</v>
       </c>
       <c r="Q24" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R24" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S24" s="125" t="n">
-        <v>0</v>
+        <v>32197</v>
       </c>
       <c r="T24" s="125" t="n">
-        <v>32197</v>
+        <v>37992.46</v>
       </c>
       <c r="U24" s="125" t="n">
-        <v>2897.73</v>
+        <v/>
       </c>
       <c r="V24" s="125" t="n">
         <v>2897.73</v>
       </c>
       <c r="W24" s="125" t="n">
-        <v>0</v>
+        <v>2897.73</v>
       </c>
       <c r="X24" s="125" t="n">
-        <v>37992.46</v>
-      </c>
-      <c r="Y24" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -4134,80 +4013,75 @@
       </c>
       <c r="B25" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10076</t>
         </is>
       </c>
       <c r="C25" s="125" t="inlineStr">
         <is>
-          <t>JB-10076</t>
-        </is>
-      </c>
-      <c r="D25" s="125" t="inlineStr">
-        <is>
           <t>SNEHA TIWARI</t>
         </is>
       </c>
+      <c r="D25" s="125" t="n">
+        <v>35971</v>
+      </c>
       <c r="E25" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F25" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G25" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H25" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K25" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L25" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O25" s="125" t="n">
         <v>35971</v>
       </c>
-      <c r="F25" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G25" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H25" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I25" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J25" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L25" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M25" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P25" s="125" t="n">
-        <v>35971</v>
+        <v>750</v>
       </c>
       <c r="Q25" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R25" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S25" s="125" t="n">
-        <v>0</v>
+        <v>36721</v>
       </c>
       <c r="T25" s="125" t="n">
-        <v>36721</v>
+        <v>43330.78</v>
       </c>
       <c r="U25" s="125" t="n">
-        <v>3304.89</v>
+        <v/>
       </c>
       <c r="V25" s="125" t="n">
         <v>3304.89</v>
       </c>
       <c r="W25" s="125" t="n">
-        <v>0</v>
+        <v>3304.89</v>
       </c>
       <c r="X25" s="125" t="n">
-        <v>43330.78</v>
-      </c>
-      <c r="Y25" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -4219,80 +4093,75 @@
       </c>
       <c r="B26" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10141</t>
         </is>
       </c>
       <c r="C26" s="125" t="inlineStr">
         <is>
-          <t>JB-10141</t>
-        </is>
-      </c>
-      <c r="D26" s="125" t="inlineStr">
-        <is>
           <t>SURYAKANTA SAHOO</t>
         </is>
       </c>
+      <c r="D26" s="125" t="n">
+        <v>53272</v>
+      </c>
       <c r="E26" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F26" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G26" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K26" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L26" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O26" s="125" t="n">
         <v>53272</v>
       </c>
-      <c r="F26" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G26" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H26" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I26" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J26" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L26" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M26" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P26" s="125" t="n">
-        <v>53272</v>
+        <v>750</v>
       </c>
       <c r="Q26" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R26" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S26" s="125" t="n">
-        <v>0</v>
+        <v>54022</v>
       </c>
       <c r="T26" s="125" t="n">
-        <v>54022</v>
+        <v>63745.96</v>
       </c>
       <c r="U26" s="125" t="n">
-        <v>4861.98</v>
+        <v/>
       </c>
       <c r="V26" s="125" t="n">
         <v>4861.98</v>
       </c>
       <c r="W26" s="125" t="n">
-        <v>0</v>
+        <v>4861.98</v>
       </c>
       <c r="X26" s="125" t="n">
-        <v>63745.96</v>
-      </c>
-      <c r="Y26" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -4304,80 +4173,75 @@
       </c>
       <c r="B27" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10088</t>
         </is>
       </c>
       <c r="C27" s="125" t="inlineStr">
         <is>
-          <t>JB-10088</t>
-        </is>
-      </c>
-      <c r="D27" s="125" t="inlineStr">
-        <is>
           <t>SUSMITA TUSHAR PATOLE</t>
         </is>
       </c>
+      <c r="D27" s="125" t="n">
+        <v>37598</v>
+      </c>
       <c r="E27" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F27" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G27" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K27" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L27" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O27" s="125" t="n">
         <v>37598</v>
       </c>
-      <c r="F27" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G27" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H27" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I27" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J27" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L27" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M27" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P27" s="125" t="n">
-        <v>37598</v>
+        <v>750</v>
       </c>
       <c r="Q27" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R27" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S27" s="125" t="n">
-        <v>0</v>
+        <v>38348</v>
       </c>
       <c r="T27" s="125" t="n">
-        <v>38348</v>
+        <v>45250.64</v>
       </c>
       <c r="U27" s="125" t="n">
-        <v>3451.32</v>
+        <v/>
       </c>
       <c r="V27" s="125" t="n">
         <v>3451.32</v>
       </c>
       <c r="W27" s="125" t="n">
-        <v>0</v>
+        <v>3451.32</v>
       </c>
       <c r="X27" s="125" t="n">
-        <v>45250.64</v>
-      </c>
-      <c r="Y27" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -4389,80 +4253,75 @@
       </c>
       <c r="B28" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10182</t>
         </is>
       </c>
       <c r="C28" s="125" t="inlineStr">
         <is>
-          <t>JB-10182</t>
-        </is>
-      </c>
-      <c r="D28" s="125" t="inlineStr">
-        <is>
           <t>URVIJA VINU PATIL</t>
         </is>
       </c>
+      <c r="D28" s="125" t="n">
+        <v>38800</v>
+      </c>
       <c r="E28" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F28" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="G28" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K28" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="L28" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O28" s="125" t="n">
         <v>38800</v>
       </c>
-      <c r="F28" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G28" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="H28" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I28" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J28" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="L28" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="M28" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="125" t="n">
-        <v>31</v>
-      </c>
       <c r="P28" s="125" t="n">
-        <v>38800</v>
+        <v>750</v>
       </c>
       <c r="Q28" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R28" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S28" s="125" t="n">
-        <v>0</v>
+        <v>39550</v>
       </c>
       <c r="T28" s="125" t="n">
-        <v>39550</v>
+        <v>46669</v>
       </c>
       <c r="U28" s="125" t="n">
-        <v>3559.5</v>
+        <v/>
       </c>
       <c r="V28" s="125" t="n">
         <v>3559.5</v>
       </c>
       <c r="W28" s="125" t="n">
-        <v>0</v>
+        <v>3559.5</v>
       </c>
       <c r="X28" s="125" t="n">
-        <v>46669</v>
-      </c>
-      <c r="Y28" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -4474,83 +4333,78 @@
       </c>
       <c r="B29" s="125" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10283</t>
         </is>
       </c>
       <c r="C29" s="125" t="inlineStr">
         <is>
-          <t>JB-10283</t>
-        </is>
-      </c>
-      <c r="D29" s="125" t="inlineStr">
-        <is>
           <t>PAWAN PARAMESHWAR MALI</t>
         </is>
       </c>
+      <c r="D29" s="125" t="n">
+        <v>38106</v>
+      </c>
       <c r="E29" s="125" t="n">
-        <v>38106</v>
+        <v>31</v>
       </c>
       <c r="F29" s="125" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G29" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="125" t="n">
         <v>5</v>
-      </c>
-      <c r="H29" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="125" t="n">
-        <v>0</v>
       </c>
       <c r="K29" s="125" t="n">
         <v>5</v>
       </c>
       <c r="L29" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="125" t="n">
         <v>5</v>
       </c>
-      <c r="M29" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="125" t="n">
-        <v>0</v>
-      </c>
       <c r="O29" s="125" t="n">
-        <v>5</v>
+        <v>6146.13</v>
       </c>
       <c r="P29" s="125" t="n">
-        <v>6146.13</v>
+        <v>750</v>
       </c>
       <c r="Q29" s="125" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R29" s="125" t="n">
         <v>0</v>
       </c>
       <c r="S29" s="125" t="n">
-        <v>0</v>
+        <v>6896.13</v>
       </c>
       <c r="T29" s="125" t="n">
-        <v>6896.13</v>
-      </c>
-      <c r="U29" s="125" t="n">
-        <v>620.65</v>
+        <v>8137.43</v>
+      </c>
+      <c r="U29" s="125" t="inlineStr">
+        <is>
+          <t>New Joiner</t>
+        </is>
       </c>
       <c r="V29" s="125" t="n">
         <v>620.65</v>
       </c>
       <c r="W29" s="125" t="n">
-        <v>0</v>
+        <v>620.65</v>
       </c>
       <c r="X29" s="125" t="n">
-        <v>8137.43</v>
-      </c>
-      <c r="Y29" s="125" t="inlineStr">
-        <is>
-          <t>New Joiner</t>
-        </is>
+        <v/>
       </c>
     </row>
     <row r="30">
@@ -4561,7 +4415,10 @@
       </c>
       <c r="B30" s="126" t="n"/>
       <c r="C30" s="126" t="n"/>
-      <c r="D30" s="126" t="n"/>
+      <c r="D30" s="126">
+        <f>ROUND(SUM(D2:D29), 0)</f>
+        <v/>
+      </c>
       <c r="E30" s="126">
         <f>ROUND(SUM(E2:E29), 0)</f>
         <v/>
@@ -4623,26 +4480,22 @@
         <v/>
       </c>
       <c r="T30" s="126">
-        <f>ROUND(SUM(T2:T29), 0)</f>
-        <v/>
-      </c>
-      <c r="U30" s="126">
-        <f>CEILING(SUM(U2:U29), 1)</f>
-        <v/>
-      </c>
+        <f>ROUND(SUM(S30), 0)</f>
+        <v/>
+      </c>
+      <c r="U30" s="126" t="n"/>
       <c r="V30" s="126">
         <f>CEILING(SUM(V2:V29), 1)</f>
         <v/>
       </c>
       <c r="W30" s="126">
-        <f>ROUND(SUM(W2:W29), 0)</f>
+        <f>CEILING(SUM(W2:W29), 1)</f>
         <v/>
       </c>
       <c r="X30" s="126">
-        <f>ROUND(SUM(T30,U30,V30,W30), 0)</f>
-        <v/>
-      </c>
-      <c r="Y30" s="126" t="n"/>
+        <f>ROUND(SUM(X2:X29), 0)</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Bills/Adish_Talim_Jobuss.xlsx
+++ b/Bills/Adish_Talim_Jobuss.xlsx
@@ -536,7 +536,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -839,7 +839,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="4" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1670,7 +1674,7 @@
       <c r="F21" s="111" t="n"/>
       <c r="G21" s="112" t="n"/>
       <c r="H21" s="113" t="n">
-        <v>97033</v>
+        <v>97034</v>
       </c>
     </row>
     <row r="22" ht="16.2" customHeight="1" thickBot="1">
@@ -1686,7 +1690,7 @@
       <c r="F22" s="114" t="n"/>
       <c r="G22" s="115" t="n"/>
       <c r="H22" s="116" t="n">
-        <v>97033</v>
+        <v>97034</v>
       </c>
     </row>
     <row r="23">
@@ -1698,7 +1702,7 @@
       <c r="F23" s="25" t="n"/>
       <c r="G23" s="26" t="n"/>
       <c r="H23" s="117" t="n">
-        <v>1272214</v>
+        <v>1272216</v>
       </c>
     </row>
     <row r="24" ht="15.6" customHeight="1">
@@ -1709,7 +1713,7 @@
       </c>
       <c r="B24" s="28" t="inlineStr">
         <is>
-          <t>Twelve Lakh, Seventy-Two Thousand, Two Hundred And Fourteen Only</t>
+          <t>Twelve Lakh, Seventy-Two Thousand, Two Hundred And Sixteen Only</t>
         </is>
       </c>
       <c r="G24" s="15" t="n"/>
@@ -2007,7 +2011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,7 +2042,6 @@
     <col width="18" customWidth="1" min="21" max="21"/>
     <col width="18" customWidth="1" min="22" max="22"/>
     <col width="18" customWidth="1" min="23" max="23"/>
-    <col width="18" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -2139,27 +2142,22 @@
       </c>
       <c r="T1" s="124" t="inlineStr">
         <is>
+          <t>CGST @9%</t>
+        </is>
+      </c>
+      <c r="U1" s="124" t="inlineStr">
+        <is>
+          <t>SGST @9%</t>
+        </is>
+      </c>
+      <c r="V1" s="124" t="inlineStr">
+        <is>
           <t>Grand Total</t>
         </is>
       </c>
-      <c r="U1" s="124" t="inlineStr">
+      <c r="W1" s="124" t="inlineStr">
         <is>
           <t>Remark</t>
-        </is>
-      </c>
-      <c r="V1" s="124" t="inlineStr">
-        <is>
-          <t>CGST @9%</t>
-        </is>
-      </c>
-      <c r="W1" s="124" t="inlineStr">
-        <is>
-          <t>SGST @9%</t>
-        </is>
-      </c>
-      <c r="X1" s="124" t="inlineStr">
-        <is>
-          <t>IGST @18%</t>
         </is>
       </c>
     </row>
@@ -2179,67 +2177,64 @@
           <t>AADITYA VIJAY GOPALANI</t>
         </is>
       </c>
-      <c r="D2" s="125" t="n">
+      <c r="D2" s="126" t="n">
         <v>40800</v>
       </c>
-      <c r="E2" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F2" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G2" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H2" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" s="125" t="n">
+      <c r="E2" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G2" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="125" t="n">
+      <c r="J2" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K2" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L2" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O2" s="125" t="n">
+      <c r="K2" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L2" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O2" s="126" t="n">
         <v>40800</v>
       </c>
-      <c r="P2" s="125" t="n">
+      <c r="P2" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q2" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="125" t="n">
+      <c r="Q2" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="126" t="n">
         <v>41550</v>
       </c>
-      <c r="T2" s="125" t="n">
+      <c r="T2" s="126" t="n">
+        <v>3739.5</v>
+      </c>
+      <c r="U2" s="126" t="n">
+        <v>3739.5</v>
+      </c>
+      <c r="V2" s="126" t="n">
         <v>49029</v>
       </c>
-      <c r="U2" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V2" s="125" t="n">
-        <v>3739.5</v>
-      </c>
       <c r="W2" s="125" t="n">
-        <v>3739.5</v>
-      </c>
-      <c r="X2" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -2259,67 +2254,64 @@
           <t>ABHISHEK GUPTA</t>
         </is>
       </c>
-      <c r="D3" s="125" t="n">
+      <c r="D3" s="126" t="n">
         <v>43870</v>
       </c>
-      <c r="E3" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F3" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G3" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" s="125" t="n">
+      <c r="E3" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F3" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G3" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="125" t="n">
+      <c r="J3" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K3" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L3" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O3" s="125" t="n">
+      <c r="K3" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L3" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O3" s="126" t="n">
         <v>43870</v>
       </c>
-      <c r="P3" s="125" t="n">
+      <c r="P3" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q3" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="125" t="n">
+      <c r="Q3" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="126" t="n">
         <v>44620</v>
       </c>
-      <c r="T3" s="125" t="n">
+      <c r="T3" s="126" t="n">
+        <v>4015.8</v>
+      </c>
+      <c r="U3" s="126" t="n">
+        <v>4015.8</v>
+      </c>
+      <c r="V3" s="126" t="n">
         <v>52651.6</v>
       </c>
-      <c r="U3" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V3" s="125" t="n">
-        <v>4015.8</v>
-      </c>
       <c r="W3" s="125" t="n">
-        <v>4015.8</v>
-      </c>
-      <c r="X3" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -2339,67 +2331,64 @@
           <t>ARUMUGAM PERIASWAMY DEVENDRAN</t>
         </is>
       </c>
-      <c r="D4" s="125" t="n">
+      <c r="D4" s="126" t="n">
         <v>45150</v>
       </c>
-      <c r="E4" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F4" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G4" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H4" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" s="125" t="n">
+      <c r="E4" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F4" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G4" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="125" t="n">
+      <c r="J4" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K4" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L4" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O4" s="125" t="n">
+      <c r="K4" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L4" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O4" s="126" t="n">
         <v>45150</v>
       </c>
-      <c r="P4" s="125" t="n">
+      <c r="P4" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q4" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="125" t="n">
+      <c r="Q4" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="126" t="n">
         <v>45900</v>
       </c>
-      <c r="T4" s="125" t="n">
+      <c r="T4" s="126" t="n">
+        <v>4131</v>
+      </c>
+      <c r="U4" s="126" t="n">
+        <v>4131</v>
+      </c>
+      <c r="V4" s="126" t="n">
         <v>54162</v>
       </c>
-      <c r="U4" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V4" s="125" t="n">
-        <v>4131</v>
-      </c>
       <c r="W4" s="125" t="n">
-        <v>4131</v>
-      </c>
-      <c r="X4" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -2419,67 +2408,64 @@
           <t>ASHUTOSH ANILKUMAR PATIL</t>
         </is>
       </c>
-      <c r="D5" s="125" t="n">
+      <c r="D5" s="126" t="n">
         <v>42848</v>
       </c>
-      <c r="E5" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F5" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G5" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" s="125" t="n">
+      <c r="E5" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F5" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G5" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="125" t="n">
+      <c r="J5" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K5" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L5" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O5" s="125" t="n">
+      <c r="K5" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L5" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O5" s="126" t="n">
         <v>42848</v>
       </c>
-      <c r="P5" s="125" t="n">
+      <c r="P5" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q5" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="125" t="n">
+      <c r="Q5" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="126" t="n">
         <v>43598</v>
       </c>
-      <c r="T5" s="125" t="n">
+      <c r="T5" s="126" t="n">
+        <v>3923.82</v>
+      </c>
+      <c r="U5" s="126" t="n">
+        <v>3923.82</v>
+      </c>
+      <c r="V5" s="126" t="n">
         <v>51445.64</v>
       </c>
-      <c r="U5" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V5" s="125" t="n">
-        <v>3923.82</v>
-      </c>
       <c r="W5" s="125" t="n">
-        <v>3923.82</v>
-      </c>
-      <c r="X5" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -2499,67 +2485,64 @@
           <t>DEEPAK KUMAR SRIVASTAVA</t>
         </is>
       </c>
-      <c r="D6" s="125" t="n">
+      <c r="D6" s="126" t="n">
         <v>39000</v>
       </c>
-      <c r="E6" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F6" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G6" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H6" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" s="125" t="n">
+      <c r="E6" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F6" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G6" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="125" t="n">
+      <c r="J6" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K6" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L6" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O6" s="125" t="n">
+      <c r="K6" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L6" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O6" s="126" t="n">
         <v>39000</v>
       </c>
-      <c r="P6" s="125" t="n">
+      <c r="P6" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q6" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="125" t="n">
+      <c r="Q6" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="126" t="n">
         <v>39750</v>
       </c>
-      <c r="T6" s="125" t="n">
+      <c r="T6" s="126" t="n">
+        <v>3577.5</v>
+      </c>
+      <c r="U6" s="126" t="n">
+        <v>3577.5</v>
+      </c>
+      <c r="V6" s="126" t="n">
         <v>46905</v>
       </c>
-      <c r="U6" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V6" s="125" t="n">
-        <v>3577.5</v>
-      </c>
       <c r="W6" s="125" t="n">
-        <v>3577.5</v>
-      </c>
-      <c r="X6" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -2579,67 +2562,64 @@
           <t>GANESH BHAGWAN KHADKE</t>
         </is>
       </c>
-      <c r="D7" s="125" t="n">
+      <c r="D7" s="126" t="n">
         <v>40660</v>
       </c>
-      <c r="E7" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F7" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G7" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H7" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" s="125" t="n">
+      <c r="E7" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F7" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G7" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J7" s="125" t="n">
+      <c r="J7" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K7" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L7" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O7" s="125" t="n">
+      <c r="K7" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L7" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O7" s="126" t="n">
         <v>40660</v>
       </c>
-      <c r="P7" s="125" t="n">
+      <c r="P7" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q7" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="125" t="n">
+      <c r="Q7" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="126" t="n">
         <v>41410</v>
       </c>
-      <c r="T7" s="125" t="n">
+      <c r="T7" s="126" t="n">
+        <v>3726.9</v>
+      </c>
+      <c r="U7" s="126" t="n">
+        <v>3726.9</v>
+      </c>
+      <c r="V7" s="126" t="n">
         <v>48863.8</v>
       </c>
-      <c r="U7" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V7" s="125" t="n">
-        <v>3726.9</v>
-      </c>
       <c r="W7" s="125" t="n">
-        <v>3726.9</v>
-      </c>
-      <c r="X7" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -2659,67 +2639,64 @@
           <t>HARSHALI RAMESH KOLI</t>
         </is>
       </c>
-      <c r="D8" s="125" t="n">
+      <c r="D8" s="126" t="n">
         <v>35700</v>
       </c>
-      <c r="E8" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F8" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G8" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H8" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I8" s="125" t="n">
+      <c r="E8" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F8" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G8" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J8" s="125" t="n">
+      <c r="J8" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K8" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L8" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O8" s="125" t="n">
+      <c r="K8" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L8" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O8" s="126" t="n">
         <v>35700</v>
       </c>
-      <c r="P8" s="125" t="n">
+      <c r="P8" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q8" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="125" t="n">
+      <c r="Q8" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="126" t="n">
         <v>36450</v>
       </c>
-      <c r="T8" s="125" t="n">
+      <c r="T8" s="126" t="n">
+        <v>3280.5</v>
+      </c>
+      <c r="U8" s="126" t="n">
+        <v>3280.5</v>
+      </c>
+      <c r="V8" s="126" t="n">
         <v>43011</v>
       </c>
-      <c r="U8" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V8" s="125" t="n">
-        <v>3280.5</v>
-      </c>
       <c r="W8" s="125" t="n">
-        <v>3280.5</v>
-      </c>
-      <c r="X8" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -2739,67 +2716,64 @@
           <t>JAI KUNAL</t>
         </is>
       </c>
-      <c r="D9" s="125" t="n">
+      <c r="D9" s="126" t="n">
         <v>41798</v>
       </c>
-      <c r="E9" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F9" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G9" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H9" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" s="125" t="n">
+      <c r="E9" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F9" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G9" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J9" s="125" t="n">
+      <c r="J9" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K9" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L9" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O9" s="125" t="n">
+      <c r="K9" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L9" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O9" s="126" t="n">
         <v>41798</v>
       </c>
-      <c r="P9" s="125" t="n">
+      <c r="P9" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q9" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="125" t="n">
+      <c r="Q9" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="126" t="n">
         <v>42548</v>
       </c>
-      <c r="T9" s="125" t="n">
+      <c r="T9" s="126" t="n">
+        <v>3829.32</v>
+      </c>
+      <c r="U9" s="126" t="n">
+        <v>3829.32</v>
+      </c>
+      <c r="V9" s="126" t="n">
         <v>50206.64</v>
       </c>
-      <c r="U9" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V9" s="125" t="n">
-        <v>3829.32</v>
-      </c>
       <c r="W9" s="125" t="n">
-        <v>3829.32</v>
-      </c>
-      <c r="X9" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -2819,67 +2793,64 @@
           <t>KARAN JOGEANDER SINGH</t>
         </is>
       </c>
-      <c r="D10" s="125" t="n">
+      <c r="D10" s="126" t="n">
         <v>36800</v>
       </c>
-      <c r="E10" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F10" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G10" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H10" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" s="125" t="n">
+      <c r="E10" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F10" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G10" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J10" s="125" t="n">
+      <c r="J10" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K10" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L10" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O10" s="125" t="n">
+      <c r="K10" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L10" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O10" s="126" t="n">
         <v>36800</v>
       </c>
-      <c r="P10" s="125" t="n">
+      <c r="P10" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q10" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="125" t="n">
+      <c r="Q10" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="126" t="n">
         <v>37550</v>
       </c>
-      <c r="T10" s="125" t="n">
+      <c r="T10" s="126" t="n">
+        <v>3379.5</v>
+      </c>
+      <c r="U10" s="126" t="n">
+        <v>3379.5</v>
+      </c>
+      <c r="V10" s="126" t="n">
         <v>44309</v>
       </c>
-      <c r="U10" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V10" s="125" t="n">
-        <v>3379.5</v>
-      </c>
       <c r="W10" s="125" t="n">
-        <v>3379.5</v>
-      </c>
-      <c r="X10" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -2899,67 +2870,64 @@
           <t>KIRTI SALASKAR</t>
         </is>
       </c>
-      <c r="D11" s="125" t="n">
+      <c r="D11" s="126" t="n">
         <v>30000</v>
       </c>
-      <c r="E11" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F11" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G11" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H11" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I11" s="125" t="n">
+      <c r="E11" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F11" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G11" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J11" s="125" t="n">
+      <c r="J11" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K11" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L11" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O11" s="125" t="n">
+      <c r="K11" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L11" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O11" s="126" t="n">
         <v>30000</v>
       </c>
-      <c r="P11" s="125" t="n">
+      <c r="P11" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q11" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="125" t="n">
+      <c r="Q11" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="126" t="n">
         <v>30750</v>
       </c>
-      <c r="T11" s="125" t="n">
+      <c r="T11" s="126" t="n">
+        <v>2767.5</v>
+      </c>
+      <c r="U11" s="126" t="n">
+        <v>2767.5</v>
+      </c>
+      <c r="V11" s="126" t="n">
         <v>36285</v>
       </c>
-      <c r="U11" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V11" s="125" t="n">
-        <v>2767.5</v>
-      </c>
       <c r="W11" s="125" t="n">
-        <v>2767.5</v>
-      </c>
-      <c r="X11" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -2979,67 +2947,64 @@
           <t>MANASA CHANDRABABU NAIDU RAVILLA</t>
         </is>
       </c>
-      <c r="D12" s="125" t="n">
+      <c r="D12" s="126" t="n">
         <v>49522</v>
       </c>
-      <c r="E12" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F12" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G12" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H12" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I12" s="125" t="n">
+      <c r="E12" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F12" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G12" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J12" s="125" t="n">
+      <c r="J12" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K12" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L12" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O12" s="125" t="n">
+      <c r="K12" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L12" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O12" s="126" t="n">
         <v>49522</v>
       </c>
-      <c r="P12" s="125" t="n">
+      <c r="P12" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q12" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="125" t="n">
+      <c r="Q12" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="126" t="n">
         <v>50272</v>
       </c>
-      <c r="T12" s="125" t="n">
+      <c r="T12" s="126" t="n">
+        <v>4524.48</v>
+      </c>
+      <c r="U12" s="126" t="n">
+        <v>4524.48</v>
+      </c>
+      <c r="V12" s="126" t="n">
         <v>59320.96</v>
       </c>
-      <c r="U12" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V12" s="125" t="n">
-        <v>4524.48</v>
-      </c>
       <c r="W12" s="125" t="n">
-        <v>4524.48</v>
-      </c>
-      <c r="X12" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -3059,67 +3024,64 @@
           <t>MANSI GOEL</t>
         </is>
       </c>
-      <c r="D13" s="125" t="n">
+      <c r="D13" s="126" t="n">
         <v>37985</v>
       </c>
-      <c r="E13" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F13" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G13" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H13" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I13" s="125" t="n">
+      <c r="E13" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F13" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G13" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J13" s="125" t="n">
+      <c r="J13" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K13" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L13" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O13" s="125" t="n">
+      <c r="K13" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L13" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O13" s="126" t="n">
         <v>37985</v>
       </c>
-      <c r="P13" s="125" t="n">
+      <c r="P13" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q13" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="125" t="n">
+      <c r="Q13" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="126" t="n">
         <v>38735</v>
       </c>
-      <c r="T13" s="125" t="n">
+      <c r="T13" s="126" t="n">
+        <v>3486.15</v>
+      </c>
+      <c r="U13" s="126" t="n">
+        <v>3486.15</v>
+      </c>
+      <c r="V13" s="126" t="n">
         <v>45707.3</v>
       </c>
-      <c r="U13" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V13" s="125" t="n">
-        <v>3486.15</v>
-      </c>
       <c r="W13" s="125" t="n">
-        <v>3486.15</v>
-      </c>
-      <c r="X13" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -3139,67 +3101,64 @@
           <t>NIKHILESH RAMSAHAI VISHWAKARMA</t>
         </is>
       </c>
-      <c r="D14" s="125" t="n">
+      <c r="D14" s="126" t="n">
         <v>33800</v>
       </c>
-      <c r="E14" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F14" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G14" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H14" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I14" s="125" t="n">
+      <c r="E14" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F14" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G14" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J14" s="125" t="n">
+      <c r="J14" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K14" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L14" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O14" s="125" t="n">
+      <c r="K14" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L14" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O14" s="126" t="n">
         <v>33800</v>
       </c>
-      <c r="P14" s="125" t="n">
+      <c r="P14" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q14" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="125" t="n">
+      <c r="Q14" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="126" t="n">
         <v>34550</v>
       </c>
-      <c r="T14" s="125" t="n">
+      <c r="T14" s="126" t="n">
+        <v>3109.5</v>
+      </c>
+      <c r="U14" s="126" t="n">
+        <v>3109.5</v>
+      </c>
+      <c r="V14" s="126" t="n">
         <v>40769</v>
       </c>
-      <c r="U14" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V14" s="125" t="n">
-        <v>3109.5</v>
-      </c>
       <c r="W14" s="125" t="n">
-        <v>3109.5</v>
-      </c>
-      <c r="X14" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -3219,70 +3178,67 @@
           <t>PANKAJ GUSAIN</t>
         </is>
       </c>
-      <c r="D15" s="125" t="n">
+      <c r="D15" s="126" t="n">
         <v>36400</v>
       </c>
-      <c r="E15" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F15" s="125" t="n">
+      <c r="E15" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F15" s="126" t="n">
         <v>24</v>
       </c>
-      <c r="G15" s="125" t="n">
+      <c r="G15" s="126" t="n">
         <v>3</v>
       </c>
-      <c r="H15" s="125" t="n">
+      <c r="H15" s="126" t="n">
         <v>3</v>
       </c>
-      <c r="I15" s="125" t="n">
+      <c r="I15" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J15" s="125" t="n">
+      <c r="J15" s="126" t="n">
         <v>17</v>
       </c>
-      <c r="K15" s="125" t="n">
+      <c r="K15" s="126" t="n">
         <v>24</v>
       </c>
-      <c r="L15" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="125" t="n">
+      <c r="L15" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="126" t="n">
         <v>24</v>
       </c>
-      <c r="O15" s="125" t="n">
+      <c r="O15" s="126" t="n">
         <v>28180.65</v>
       </c>
-      <c r="P15" s="125" t="n">
+      <c r="P15" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q15" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="125" t="n">
+      <c r="Q15" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="126" t="n">
         <v>28930.65</v>
       </c>
-      <c r="T15" s="125" t="n">
+      <c r="T15" s="126" t="n">
+        <v>2603.76</v>
+      </c>
+      <c r="U15" s="126" t="n">
+        <v>2603.76</v>
+      </c>
+      <c r="V15" s="126" t="n">
         <v>34138.16</v>
       </c>
-      <c r="U15" s="125" t="inlineStr">
+      <c r="W15" s="125" t="inlineStr">
         <is>
           <t>LDW 13-02-2026</t>
         </is>
-      </c>
-      <c r="V15" s="125" t="n">
-        <v>2603.76</v>
-      </c>
-      <c r="W15" s="125" t="n">
-        <v>2603.76</v>
-      </c>
-      <c r="X15" s="125" t="n">
-        <v/>
       </c>
     </row>
     <row r="16">
@@ -3301,67 +3257,64 @@
           <t>RAGHAV MANGLIK</t>
         </is>
       </c>
-      <c r="D16" s="125" t="n">
+      <c r="D16" s="126" t="n">
         <v>39698</v>
       </c>
-      <c r="E16" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F16" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G16" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H16" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I16" s="125" t="n">
+      <c r="E16" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F16" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G16" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J16" s="125" t="n">
+      <c r="J16" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K16" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L16" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O16" s="125" t="n">
+      <c r="K16" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L16" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O16" s="126" t="n">
         <v>39698</v>
       </c>
-      <c r="P16" s="125" t="n">
+      <c r="P16" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q16" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="125" t="n">
+      <c r="Q16" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="126" t="n">
         <v>40448</v>
       </c>
-      <c r="T16" s="125" t="n">
+      <c r="T16" s="126" t="n">
+        <v>3640.32</v>
+      </c>
+      <c r="U16" s="126" t="n">
+        <v>3640.32</v>
+      </c>
+      <c r="V16" s="126" t="n">
         <v>47728.64</v>
       </c>
-      <c r="U16" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V16" s="125" t="n">
-        <v>3640.32</v>
-      </c>
       <c r="W16" s="125" t="n">
-        <v>3640.32</v>
-      </c>
-      <c r="X16" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -3381,67 +3334,64 @@
           <t>RAJKUMAR SIDRAM GAIKWAD</t>
         </is>
       </c>
-      <c r="D17" s="125" t="n">
+      <c r="D17" s="126" t="n">
         <v>37985</v>
       </c>
-      <c r="E17" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F17" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G17" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H17" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I17" s="125" t="n">
+      <c r="E17" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F17" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G17" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J17" s="125" t="n">
+      <c r="J17" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K17" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L17" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O17" s="125" t="n">
+      <c r="K17" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L17" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O17" s="126" t="n">
         <v>37985</v>
       </c>
-      <c r="P17" s="125" t="n">
+      <c r="P17" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q17" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="125" t="n">
+      <c r="Q17" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="126" t="n">
         <v>38735</v>
       </c>
-      <c r="T17" s="125" t="n">
+      <c r="T17" s="126" t="n">
+        <v>3486.15</v>
+      </c>
+      <c r="U17" s="126" t="n">
+        <v>3486.15</v>
+      </c>
+      <c r="V17" s="126" t="n">
         <v>45707.3</v>
       </c>
-      <c r="U17" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V17" s="125" t="n">
-        <v>3486.15</v>
-      </c>
       <c r="W17" s="125" t="n">
-        <v>3486.15</v>
-      </c>
-      <c r="X17" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -3461,67 +3411,64 @@
           <t>RAM PRAKASH PATIL</t>
         </is>
       </c>
-      <c r="D18" s="125" t="n">
+      <c r="D18" s="126" t="n">
         <v>40748</v>
       </c>
-      <c r="E18" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F18" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G18" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H18" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I18" s="125" t="n">
+      <c r="E18" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F18" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G18" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J18" s="125" t="n">
+      <c r="J18" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K18" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L18" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O18" s="125" t="n">
+      <c r="K18" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L18" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O18" s="126" t="n">
         <v>40748</v>
       </c>
-      <c r="P18" s="125" t="n">
+      <c r="P18" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q18" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" s="125" t="n">
+      <c r="Q18" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="126" t="n">
         <v>41498</v>
       </c>
-      <c r="T18" s="125" t="n">
+      <c r="T18" s="126" t="n">
+        <v>3734.82</v>
+      </c>
+      <c r="U18" s="126" t="n">
+        <v>3734.82</v>
+      </c>
+      <c r="V18" s="126" t="n">
         <v>48967.64</v>
       </c>
-      <c r="U18" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V18" s="125" t="n">
-        <v>3734.82</v>
-      </c>
       <c r="W18" s="125" t="n">
-        <v>3734.82</v>
-      </c>
-      <c r="X18" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -3541,67 +3488,64 @@
           <t>SANCHIT KACHALE</t>
         </is>
       </c>
-      <c r="D19" s="125" t="n">
+      <c r="D19" s="126" t="n">
         <v>34570</v>
       </c>
-      <c r="E19" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F19" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G19" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H19" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I19" s="125" t="n">
+      <c r="E19" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F19" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G19" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H19" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J19" s="125" t="n">
+      <c r="J19" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K19" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L19" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O19" s="125" t="n">
+      <c r="K19" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L19" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O19" s="126" t="n">
         <v>34570</v>
       </c>
-      <c r="P19" s="125" t="n">
+      <c r="P19" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q19" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" s="125" t="n">
+      <c r="Q19" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="126" t="n">
         <v>35320</v>
       </c>
-      <c r="T19" s="125" t="n">
+      <c r="T19" s="126" t="n">
+        <v>3178.8</v>
+      </c>
+      <c r="U19" s="126" t="n">
+        <v>3178.8</v>
+      </c>
+      <c r="V19" s="126" t="n">
         <v>41677.6</v>
       </c>
-      <c r="U19" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V19" s="125" t="n">
-        <v>3178.8</v>
-      </c>
       <c r="W19" s="125" t="n">
-        <v>3178.8</v>
-      </c>
-      <c r="X19" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -3621,67 +3565,64 @@
           <t>SANTOSH NAMDEV WAGHMARE</t>
         </is>
       </c>
-      <c r="D20" s="125" t="n">
+      <c r="D20" s="126" t="n">
         <v>41800</v>
       </c>
-      <c r="E20" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F20" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G20" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H20" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I20" s="125" t="n">
+      <c r="E20" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F20" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G20" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J20" s="125" t="n">
+      <c r="J20" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K20" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L20" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O20" s="125" t="n">
+      <c r="K20" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L20" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O20" s="126" t="n">
         <v>41800</v>
       </c>
-      <c r="P20" s="125" t="n">
+      <c r="P20" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q20" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="125" t="n">
+      <c r="Q20" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="126" t="n">
         <v>42550</v>
       </c>
-      <c r="T20" s="125" t="n">
+      <c r="T20" s="126" t="n">
+        <v>3829.5</v>
+      </c>
+      <c r="U20" s="126" t="n">
+        <v>3829.5</v>
+      </c>
+      <c r="V20" s="126" t="n">
         <v>50209</v>
       </c>
-      <c r="U20" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V20" s="125" t="n">
-        <v>3829.5</v>
-      </c>
       <c r="W20" s="125" t="n">
-        <v>3829.5</v>
-      </c>
-      <c r="X20" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -3701,67 +3642,64 @@
           <t>SHIVANI SURESH SHARMA</t>
         </is>
       </c>
-      <c r="D21" s="125" t="n">
+      <c r="D21" s="126" t="n">
         <v>38762</v>
       </c>
-      <c r="E21" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F21" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G21" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H21" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I21" s="125" t="n">
+      <c r="E21" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F21" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G21" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J21" s="125" t="n">
+      <c r="J21" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K21" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L21" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O21" s="125" t="n">
+      <c r="K21" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L21" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O21" s="126" t="n">
         <v>38762</v>
       </c>
-      <c r="P21" s="125" t="n">
+      <c r="P21" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q21" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="125" t="n">
+      <c r="Q21" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="126" t="n">
         <v>39512</v>
       </c>
-      <c r="T21" s="125" t="n">
+      <c r="T21" s="126" t="n">
+        <v>3556.08</v>
+      </c>
+      <c r="U21" s="126" t="n">
+        <v>3556.08</v>
+      </c>
+      <c r="V21" s="126" t="n">
         <v>46624.16</v>
       </c>
-      <c r="U21" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V21" s="125" t="n">
-        <v>3556.08</v>
-      </c>
       <c r="W21" s="125" t="n">
-        <v>3556.08</v>
-      </c>
-      <c r="X21" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -3781,67 +3719,64 @@
           <t>SHUBHAM SANJAY KUWALEKAR</t>
         </is>
       </c>
-      <c r="D22" s="125" t="n">
+      <c r="D22" s="126" t="n">
         <v>32570</v>
       </c>
-      <c r="E22" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F22" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G22" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H22" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I22" s="125" t="n">
+      <c r="E22" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F22" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G22" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H22" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J22" s="125" t="n">
+      <c r="J22" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K22" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L22" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O22" s="125" t="n">
+      <c r="K22" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L22" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O22" s="126" t="n">
         <v>32570</v>
       </c>
-      <c r="P22" s="125" t="n">
+      <c r="P22" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q22" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" s="125" t="n">
+      <c r="Q22" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" s="126" t="n">
         <v>33320</v>
       </c>
-      <c r="T22" s="125" t="n">
+      <c r="T22" s="126" t="n">
+        <v>2998.8</v>
+      </c>
+      <c r="U22" s="126" t="n">
+        <v>2998.8</v>
+      </c>
+      <c r="V22" s="126" t="n">
         <v>39317.6</v>
       </c>
-      <c r="U22" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V22" s="125" t="n">
-        <v>2998.8</v>
-      </c>
       <c r="W22" s="125" t="n">
-        <v>2998.8</v>
-      </c>
-      <c r="X22" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -3861,67 +3796,64 @@
           <t>SHWETA GAJANAN GOSAVI</t>
         </is>
       </c>
-      <c r="D23" s="125" t="n">
+      <c r="D23" s="126" t="n">
         <v>41667</v>
       </c>
-      <c r="E23" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F23" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G23" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H23" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I23" s="125" t="n">
+      <c r="E23" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F23" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G23" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="125" t="n">
+      <c r="J23" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K23" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L23" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O23" s="125" t="n">
+      <c r="K23" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L23" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O23" s="126" t="n">
         <v>41667</v>
       </c>
-      <c r="P23" s="125" t="n">
+      <c r="P23" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q23" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" s="125" t="n">
+      <c r="Q23" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" s="126" t="n">
         <v>42417</v>
       </c>
-      <c r="T23" s="125" t="n">
+      <c r="T23" s="126" t="n">
+        <v>3817.53</v>
+      </c>
+      <c r="U23" s="126" t="n">
+        <v>3817.53</v>
+      </c>
+      <c r="V23" s="126" t="n">
         <v>50052.06</v>
       </c>
-      <c r="U23" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V23" s="125" t="n">
-        <v>3817.53</v>
-      </c>
       <c r="W23" s="125" t="n">
-        <v>3817.53</v>
-      </c>
-      <c r="X23" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -3941,67 +3873,64 @@
           <t>SNEHA PRAVIN SHINDE</t>
         </is>
       </c>
-      <c r="D24" s="125" t="n">
+      <c r="D24" s="126" t="n">
         <v>31447</v>
       </c>
-      <c r="E24" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F24" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G24" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H24" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I24" s="125" t="n">
+      <c r="E24" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F24" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G24" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H24" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J24" s="125" t="n">
+      <c r="J24" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K24" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L24" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O24" s="125" t="n">
+      <c r="K24" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L24" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O24" s="126" t="n">
         <v>31447</v>
       </c>
-      <c r="P24" s="125" t="n">
+      <c r="P24" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q24" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" s="125" t="n">
+      <c r="Q24" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" s="126" t="n">
         <v>32197</v>
       </c>
-      <c r="T24" s="125" t="n">
+      <c r="T24" s="126" t="n">
+        <v>2897.73</v>
+      </c>
+      <c r="U24" s="126" t="n">
+        <v>2897.73</v>
+      </c>
+      <c r="V24" s="126" t="n">
         <v>37992.46</v>
       </c>
-      <c r="U24" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V24" s="125" t="n">
-        <v>2897.73</v>
-      </c>
       <c r="W24" s="125" t="n">
-        <v>2897.73</v>
-      </c>
-      <c r="X24" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -4021,67 +3950,64 @@
           <t>SNEHA TIWARI</t>
         </is>
       </c>
-      <c r="D25" s="125" t="n">
+      <c r="D25" s="126" t="n">
         <v>35971</v>
       </c>
-      <c r="E25" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F25" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G25" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H25" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I25" s="125" t="n">
+      <c r="E25" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F25" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G25" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H25" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J25" s="125" t="n">
+      <c r="J25" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K25" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L25" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O25" s="125" t="n">
+      <c r="K25" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L25" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O25" s="126" t="n">
         <v>35971</v>
       </c>
-      <c r="P25" s="125" t="n">
+      <c r="P25" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q25" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" s="125" t="n">
+      <c r="Q25" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" s="126" t="n">
         <v>36721</v>
       </c>
-      <c r="T25" s="125" t="n">
+      <c r="T25" s="126" t="n">
+        <v>3304.89</v>
+      </c>
+      <c r="U25" s="126" t="n">
+        <v>3304.89</v>
+      </c>
+      <c r="V25" s="126" t="n">
         <v>43330.78</v>
       </c>
-      <c r="U25" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V25" s="125" t="n">
-        <v>3304.89</v>
-      </c>
       <c r="W25" s="125" t="n">
-        <v>3304.89</v>
-      </c>
-      <c r="X25" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -4101,67 +4027,64 @@
           <t>SURYAKANTA SAHOO</t>
         </is>
       </c>
-      <c r="D26" s="125" t="n">
+      <c r="D26" s="126" t="n">
         <v>53272</v>
       </c>
-      <c r="E26" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F26" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G26" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H26" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I26" s="125" t="n">
+      <c r="E26" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F26" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G26" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J26" s="125" t="n">
+      <c r="J26" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K26" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L26" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O26" s="125" t="n">
+      <c r="K26" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L26" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O26" s="126" t="n">
         <v>53272</v>
       </c>
-      <c r="P26" s="125" t="n">
+      <c r="P26" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q26" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" s="125" t="n">
+      <c r="Q26" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" s="126" t="n">
         <v>54022</v>
       </c>
-      <c r="T26" s="125" t="n">
+      <c r="T26" s="126" t="n">
+        <v>4861.98</v>
+      </c>
+      <c r="U26" s="126" t="n">
+        <v>4861.98</v>
+      </c>
+      <c r="V26" s="126" t="n">
         <v>63745.96</v>
       </c>
-      <c r="U26" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V26" s="125" t="n">
-        <v>4861.98</v>
-      </c>
       <c r="W26" s="125" t="n">
-        <v>4861.98</v>
-      </c>
-      <c r="X26" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -4181,67 +4104,64 @@
           <t>SUSMITA TUSHAR PATOLE</t>
         </is>
       </c>
-      <c r="D27" s="125" t="n">
+      <c r="D27" s="126" t="n">
         <v>37598</v>
       </c>
-      <c r="E27" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F27" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G27" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H27" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I27" s="125" t="n">
+      <c r="E27" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F27" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G27" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J27" s="125" t="n">
+      <c r="J27" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K27" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L27" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O27" s="125" t="n">
+      <c r="K27" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L27" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O27" s="126" t="n">
         <v>37598</v>
       </c>
-      <c r="P27" s="125" t="n">
+      <c r="P27" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q27" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" s="125" t="n">
+      <c r="Q27" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="126" t="n">
         <v>38348</v>
       </c>
-      <c r="T27" s="125" t="n">
+      <c r="T27" s="126" t="n">
+        <v>3451.32</v>
+      </c>
+      <c r="U27" s="126" t="n">
+        <v>3451.32</v>
+      </c>
+      <c r="V27" s="126" t="n">
         <v>45250.64</v>
       </c>
-      <c r="U27" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V27" s="125" t="n">
-        <v>3451.32</v>
-      </c>
       <c r="W27" s="125" t="n">
-        <v>3451.32</v>
-      </c>
-      <c r="X27" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -4261,67 +4181,64 @@
           <t>URVIJA VINU PATIL</t>
         </is>
       </c>
-      <c r="D28" s="125" t="n">
+      <c r="D28" s="126" t="n">
         <v>38800</v>
       </c>
-      <c r="E28" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F28" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G28" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H28" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I28" s="125" t="n">
+      <c r="E28" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F28" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G28" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" s="126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="J28" s="125" t="n">
+      <c r="J28" s="126" t="n">
         <v>22</v>
       </c>
-      <c r="K28" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="L28" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="O28" s="125" t="n">
+      <c r="K28" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="L28" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O28" s="126" t="n">
         <v>38800</v>
       </c>
-      <c r="P28" s="125" t="n">
+      <c r="P28" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q28" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" s="125" t="n">
+      <c r="Q28" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" s="126" t="n">
         <v>39550</v>
       </c>
-      <c r="T28" s="125" t="n">
+      <c r="T28" s="126" t="n">
+        <v>3559.5</v>
+      </c>
+      <c r="U28" s="126" t="n">
+        <v>3559.5</v>
+      </c>
+      <c r="V28" s="126" t="n">
         <v>46669</v>
       </c>
-      <c r="U28" s="125" t="n">
-        <v/>
-      </c>
-      <c r="V28" s="125" t="n">
-        <v>3559.5</v>
-      </c>
       <c r="W28" s="125" t="n">
-        <v>3559.5</v>
-      </c>
-      <c r="X28" s="125" t="n">
         <v/>
       </c>
     </row>
@@ -4341,161 +4258,154 @@
           <t>PAWAN PARAMESHWAR MALI</t>
         </is>
       </c>
-      <c r="D29" s="125" t="n">
+      <c r="D29" s="126" t="n">
         <v>38106</v>
       </c>
-      <c r="E29" s="125" t="n">
-        <v>31</v>
-      </c>
-      <c r="F29" s="125" t="n">
+      <c r="E29" s="126" t="n">
+        <v>31</v>
+      </c>
+      <c r="F29" s="126" t="n">
         <v>5</v>
       </c>
-      <c r="G29" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="125" t="n">
+      <c r="G29" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="126" t="n">
         <v>5</v>
       </c>
-      <c r="K29" s="125" t="n">
+      <c r="K29" s="126" t="n">
         <v>5</v>
       </c>
-      <c r="L29" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="125" t="n">
+      <c r="L29" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="126" t="n">
         <v>5</v>
       </c>
-      <c r="O29" s="125" t="n">
+      <c r="O29" s="126" t="n">
         <v>6146.13</v>
       </c>
-      <c r="P29" s="125" t="n">
+      <c r="P29" s="126" t="n">
         <v>750</v>
       </c>
-      <c r="Q29" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" s="125" t="n">
+      <c r="Q29" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" s="126" t="n">
         <v>6896.13</v>
       </c>
-      <c r="T29" s="125" t="n">
+      <c r="T29" s="126" t="n">
+        <v>620.65</v>
+      </c>
+      <c r="U29" s="126" t="n">
+        <v>620.65</v>
+      </c>
+      <c r="V29" s="126" t="n">
         <v>8137.43</v>
       </c>
-      <c r="U29" s="125" t="inlineStr">
+      <c r="W29" s="125" t="inlineStr">
         <is>
           <t>New Joiner</t>
         </is>
       </c>
-      <c r="V29" s="125" t="n">
-        <v>620.65</v>
-      </c>
-      <c r="W29" s="125" t="n">
-        <v>620.65</v>
-      </c>
-      <c r="X29" s="125" t="n">
-        <v/>
-      </c>
     </row>
     <row r="30">
-      <c r="A30" s="126" t="inlineStr">
+      <c r="A30" s="127" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B30" s="126" t="n"/>
-      <c r="C30" s="126" t="n"/>
-      <c r="D30" s="126">
+      <c r="B30" s="127" t="n"/>
+      <c r="C30" s="127" t="n"/>
+      <c r="D30" s="128">
         <f>ROUND(SUM(D2:D29), 0)</f>
         <v/>
       </c>
-      <c r="E30" s="126">
+      <c r="E30" s="128">
         <f>ROUND(SUM(E2:E29), 0)</f>
         <v/>
       </c>
-      <c r="F30" s="126">
+      <c r="F30" s="128">
         <f>ROUND(SUM(F2:F29), 0)</f>
         <v/>
       </c>
-      <c r="G30" s="126">
+      <c r="G30" s="128">
         <f>ROUND(SUM(G2:G29), 0)</f>
         <v/>
       </c>
-      <c r="H30" s="126">
+      <c r="H30" s="128">
         <f>ROUND(SUM(H2:H29), 0)</f>
         <v/>
       </c>
-      <c r="I30" s="126">
+      <c r="I30" s="128">
         <f>ROUND(SUM(I2:I29), 0)</f>
         <v/>
       </c>
-      <c r="J30" s="126">
+      <c r="J30" s="128">
         <f>ROUND(SUM(J2:J29), 0)</f>
         <v/>
       </c>
-      <c r="K30" s="126">
+      <c r="K30" s="128">
         <f>ROUND(SUM(K2:K29), 0)</f>
         <v/>
       </c>
-      <c r="L30" s="126">
+      <c r="L30" s="128">
         <f>ROUND(SUM(L2:L29), 0)</f>
         <v/>
       </c>
-      <c r="M30" s="126">
+      <c r="M30" s="128">
         <f>ROUND(SUM(M2:M29), 0)</f>
         <v/>
       </c>
-      <c r="N30" s="126">
+      <c r="N30" s="128">
         <f>ROUND(SUM(N2:N29), 0)</f>
         <v/>
       </c>
-      <c r="O30" s="126">
+      <c r="O30" s="128">
         <f>ROUND(SUM(O2:O29), 0)</f>
         <v/>
       </c>
-      <c r="P30" s="126">
+      <c r="P30" s="128">
         <f>ROUND(SUM(P2:P29), 0)</f>
         <v/>
       </c>
-      <c r="Q30" s="126">
+      <c r="Q30" s="128">
         <f>ROUND(SUM(Q2:Q29), 0)</f>
         <v/>
       </c>
-      <c r="R30" s="126">
+      <c r="R30" s="128">
         <f>ROUND(SUM(R2:R29), 0)</f>
         <v/>
       </c>
-      <c r="S30" s="126">
+      <c r="S30" s="128">
         <f>ROUND(SUM(S2:S29), 0)</f>
         <v/>
       </c>
-      <c r="T30" s="126">
-        <f>ROUND(SUM(S30), 0)</f>
+      <c r="T30" s="128">
+        <f>CEILING(SUM(T2:T29), 1)</f>
         <v/>
       </c>
-      <c r="U30" s="126" t="n"/>
-      <c r="V30" s="126">
-        <f>CEILING(SUM(V2:V29), 1)</f>
+      <c r="U30" s="128">
+        <f>CEILING(SUM(U2:U29), 1)</f>
         <v/>
       </c>
-      <c r="W30" s="126">
-        <f>CEILING(SUM(W2:W29), 1)</f>
+      <c r="V30" s="128">
+        <f>ROUND(SUM(S30,T30,U30), 0)</f>
         <v/>
       </c>
-      <c r="X30" s="126">
-        <f>ROUND(SUM(X2:X29), 0)</f>
-        <v/>
-      </c>
+      <c r="W30" s="127" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
